--- a/biology/Zoologie/Cepola_macrophthalma/Cepola_macrophthalma.xlsx
+++ b/biology/Zoologie/Cepola_macrophthalma/Cepola_macrophthalma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cépole commune
 Cepola macrophthalma est une espèce de poissons de la famille des Cepolidae, connue sous le nom de Cépole ou Cépole commune, d'autres noms vernaculaires comme demoiselle (libellule), fouet, jarretière, ces noms sont dus soit à la forme globuleuse des yeux soit à la forme de ruban du poisson (plat et mince).
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,10 +552,12 @@
           <t>Mentions historiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'auteur grec du Ve siècle av. J.-C. Mithécos indique comment préparer ce poisson :
-Tainia: vider, jeter la tête, laver, couper en tranches ; ajouter du fromage et de l'huile d'olive[1].</t>
+Tainia: vider, jeter la tête, laver, couper en tranches ; ajouter du fromage et de l'huile d'olive.</t>
         </is>
       </c>
     </row>
